--- a/DIR/Proyecto/P1-e6 Interconexión de sites/GIC-DIR-Practica1-e6/GIC-DIR-Practica2-e6-Interconexión.xlsx
+++ b/DIR/Proyecto/P1-e6 Interconexión de sites/GIC-DIR-Practica1-e6/GIC-DIR-Practica2-e6-Interconexión.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/692426700a49c2ec/Documentos/2-cuatri/DIR/Proyecto/P1-e6 Interconexión de sites/GIC-DIR-Practica1-e6/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AA9769-4E51-431E-95C5-6DEEDBD26080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genérico" sheetId="1" r:id="rId1"/>
     <sheet name="Switches" sheetId="2" r:id="rId2"/>
     <sheet name="Administración" sheetId="3" r:id="rId3"/>
     <sheet name="Informes" sheetId="4" r:id="rId4"/>
+    <sheet name="WAN" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="195">
   <si>
     <t>Depts.</t>
   </si>
@@ -74,72 +78,36 @@
     <t>2A - 3A - 2C</t>
   </si>
   <si>
-    <t>10.0.0.0/22</t>
-  </si>
-  <si>
-    <t>10.0.0.1</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>3D - 3B</t>
   </si>
   <si>
-    <t>10.0.4.0/22</t>
-  </si>
-  <si>
-    <t>10.0.4.1</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>2B - 3C</t>
   </si>
   <si>
-    <t>10.0.8.0/23</t>
-  </si>
-  <si>
-    <t>10.0.8.1</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>1B</t>
   </si>
   <si>
-    <t>10.0.10.0/24</t>
-  </si>
-  <si>
-    <t>10.0.10.1</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>2D</t>
   </si>
   <si>
-    <t>10.0.11.0/25</t>
-  </si>
-  <si>
-    <t>10.0.11.1</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
     <t>1A</t>
   </si>
   <si>
-    <t>10.0.11.128/26</t>
-  </si>
-  <si>
-    <t>10.0.11.129</t>
-  </si>
-  <si>
     <t>Rangos de direcciones privadas posibles</t>
   </si>
   <si>
@@ -167,72 +135,42 @@
     <t>A-Web-1</t>
   </si>
   <si>
-    <t>10.1.0.0/23</t>
-  </si>
-  <si>
-    <t>10.1.0.1</t>
-  </si>
-  <si>
     <t>APP1-W2L</t>
   </si>
   <si>
     <t>A-Logic-1</t>
   </si>
   <si>
-    <t>10.1.2.0/23</t>
-  </si>
-  <si>
     <t>APP1-L2DB</t>
   </si>
   <si>
     <t>A-DB-1</t>
   </si>
   <si>
-    <t>10.1.4.0/23</t>
-  </si>
-  <si>
     <t>APP2-Front</t>
   </si>
   <si>
     <t>B-Web-1</t>
   </si>
   <si>
-    <t>10.1.6.0/23</t>
-  </si>
-  <si>
-    <t>10.1.6.1</t>
-  </si>
-  <si>
     <t>APP2-F2L</t>
   </si>
   <si>
     <t>B-Logic-1</t>
   </si>
   <si>
-    <t>10.1.8.0/23</t>
-  </si>
-  <si>
     <t>APP2-L2DB</t>
   </si>
   <si>
     <t>B-DB-1</t>
   </si>
   <si>
-    <t>10.1.10.0/23</t>
-  </si>
-  <si>
     <t>DNS</t>
   </si>
   <si>
     <t>DNS-1</t>
   </si>
   <si>
-    <t>10.1.12.0/23</t>
-  </si>
-  <si>
-    <t>10.1.12.1</t>
-  </si>
-  <si>
     <t>Switch</t>
   </si>
   <si>
@@ -507,12 +445,189 @@
   </si>
   <si>
     <t>He configurado el router para poder acceder a él únicamente desde el PC host de la subred de administración.</t>
+  </si>
+  <si>
+    <t>Enlace</t>
+  </si>
+  <si>
+    <t>Router1</t>
+  </si>
+  <si>
+    <t>Router2</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>IP1</t>
+  </si>
+  <si>
+    <t>IP2</t>
+  </si>
+  <si>
+    <t>E4-VPC-S1-S2</t>
+  </si>
+  <si>
+    <t>S1-WAN</t>
+  </si>
+  <si>
+    <t>S2-WAN</t>
+  </si>
+  <si>
+    <t>192.168.0.0/30</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>192.168.0.2</t>
+  </si>
+  <si>
+    <t>E4-VPC-S2-S3</t>
+  </si>
+  <si>
+    <t>S3-WAN</t>
+  </si>
+  <si>
+    <t>192.168.0.4/30</t>
+  </si>
+  <si>
+    <t>192.168.0.5</t>
+  </si>
+  <si>
+    <t>192.168.0.6</t>
+  </si>
+  <si>
+    <t>E4-VPC-S3-S4</t>
+  </si>
+  <si>
+    <t>S4-WAN</t>
+  </si>
+  <si>
+    <t>192.168.0.8/30</t>
+  </si>
+  <si>
+    <t>192.168.0.9</t>
+  </si>
+  <si>
+    <t>192.168.0.10</t>
+  </si>
+  <si>
+    <t>E4-VPC-S4-S5</t>
+  </si>
+  <si>
+    <t>S5-WAN</t>
+  </si>
+  <si>
+    <t>192.168.0.12/30</t>
+  </si>
+  <si>
+    <t>192.168.0.13</t>
+  </si>
+  <si>
+    <t>192.168.0.14</t>
+  </si>
+  <si>
+    <t>E4-VPC-S5-S6</t>
+  </si>
+  <si>
+    <t>S6-WAN</t>
+  </si>
+  <si>
+    <t>192.168.0.16/30</t>
+  </si>
+  <si>
+    <t>192.168.0.17</t>
+  </si>
+  <si>
+    <t>192.168.0.18</t>
+  </si>
+  <si>
+    <t>E4-VPC-S6-S1</t>
+  </si>
+  <si>
+    <t>192.168.0.20/30</t>
+  </si>
+  <si>
+    <t>192.168.0.21</t>
+  </si>
+  <si>
+    <t>192.168.0.22</t>
+  </si>
+  <si>
+    <t>10.5.0.0/22</t>
+  </si>
+  <si>
+    <t>10.5.4.0/22</t>
+  </si>
+  <si>
+    <t>10.5.8.0/23</t>
+  </si>
+  <si>
+    <t>10.5.10.0/24</t>
+  </si>
+  <si>
+    <t>10.5.11.0/25</t>
+  </si>
+  <si>
+    <t>10.5.11.128/26</t>
+  </si>
+  <si>
+    <t>10.5.0.1</t>
+  </si>
+  <si>
+    <t>10.5.4.1</t>
+  </si>
+  <si>
+    <t>10.5.8.1</t>
+  </si>
+  <si>
+    <t>10.5.10.1</t>
+  </si>
+  <si>
+    <t>10.5.11.1</t>
+  </si>
+  <si>
+    <t>10.5.11.129</t>
+  </si>
+  <si>
+    <t>10.6.0.0/23</t>
+  </si>
+  <si>
+    <t>10.6.2.0/23</t>
+  </si>
+  <si>
+    <t>10.6.4.0/23</t>
+  </si>
+  <si>
+    <t>10.6.6.0/23</t>
+  </si>
+  <si>
+    <t>10.6.8.0/23</t>
+  </si>
+  <si>
+    <t>10.6.10.0/23</t>
+  </si>
+  <si>
+    <t>10.6.12.0/23</t>
+  </si>
+  <si>
+    <t>10.6.0.1</t>
+  </si>
+  <si>
+    <t>10.6.6.1</t>
+  </si>
+  <si>
+    <t>10.6.12.1</t>
+  </si>
+  <si>
+    <t>IP's nuevas actualizadas en LAN-router.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -665,7 +780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1191,11 +1306,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1341,10 +1546,24 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,7 +1643,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1694,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1551,9 +1770,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1591,7 +1810,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1663,7 +1882,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1836,42 +2055,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU55"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.5703125" customWidth="1"/>
-    <col min="16" max="47" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="13" width="10.5546875" customWidth="1"/>
+    <col min="16" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-    </row>
-    <row r="2" spans="1:47" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+    </row>
+    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +2126,7 @@
       </c>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -1924,10 +2143,10 @@
         <v>1024</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="H3" s="16"/>
       <c r="J3" s="22">
@@ -1942,15 +2161,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="27">
         <v>701</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="25">
         <v>104</v>
@@ -1959,10 +2178,10 @@
         <v>1024</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="H4" s="16"/>
       <c r="J4" s="22">
@@ -1978,15 +2197,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="27">
         <v>383</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="25">
         <v>101</v>
@@ -1995,10 +2214,10 @@
         <v>512</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="H5" s="16"/>
       <c r="J5" s="22">
@@ -2014,15 +2233,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="27">
         <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" s="25">
         <v>103</v>
@@ -2031,10 +2250,10 @@
         <v>256</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H6" s="29"/>
       <c r="J6" s="22">
@@ -2050,15 +2269,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B7" s="27">
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7" s="25">
         <v>100</v>
@@ -2067,10 +2286,10 @@
         <v>128</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="H7" s="16"/>
       <c r="J7" s="22">
@@ -2086,15 +2305,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B8" s="27">
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D8" s="25">
         <v>105</v>
@@ -2103,10 +2322,10 @@
         <v>65</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="H8" s="16"/>
       <c r="J8" s="22">
@@ -2122,15 +2341,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B9" s="27">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D9" s="25">
         <v>10</v>
@@ -2139,13 +2358,13 @@
         <v>256</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J9" s="22">
         <f t="shared" si="2"/>
@@ -2160,7 +2379,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="7"/>
       <c r="G10" s="8"/>
@@ -2178,7 +2397,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2200,7 +2419,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="J12" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2214,12 +2433,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A13" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
       <c r="J13" s="22">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2329,12 +2548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A14" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
       <c r="J14" s="22">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2348,12 +2567,12 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A15" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
       <c r="J15" s="22">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2367,19 +2586,19 @@
         <v>4094</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O15">
         <f>COUNTIF(P13:AU13,"=1")</f>
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A16" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
       <c r="J16" s="22">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2393,7 +2612,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J17" s="22">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2408,7 +2627,7 @@
       </c>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J18" s="22">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2422,7 +2641,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J19" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2436,27 +2655,24 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D22" s="82"/>
-    </row>
-    <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-    </row>
-    <row r="25" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39" t="s">
@@ -2475,12 +2691,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34">
@@ -2490,19 +2706,19 @@
         <v>512</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="34">
@@ -2512,17 +2728,17 @@
         <v>512</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="34">
@@ -2532,17 +2748,17 @@
         <v>512</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34">
@@ -2552,19 +2768,19 @@
         <v>512</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="34">
@@ -2574,17 +2790,17 @@
         <v>512</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="34">
@@ -2594,17 +2810,17 @@
         <v>512</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="42"/>
     </row>
-    <row r="32" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36">
@@ -2614,14 +2830,14 @@
         <v>512</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="H32" s="42"/>
     </row>
-    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2631,7 +2847,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="42"/>
     </row>
-    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="46"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -2641,50 +2857,50 @@
       <c r="G34" s="47"/>
       <c r="H34" s="48"/>
     </row>
-    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C39" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H39" s="40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B40" s="34">
         <v>0</v>
@@ -2694,19 +2910,19 @@
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="34" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B41" s="34">
         <v>0</v>
@@ -2716,19 +2932,19 @@
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="H41" s="42"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B42" s="34">
         <v>0</v>
@@ -2738,15 +2954,15 @@
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
       <c r="H42" s="42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B43" s="34">
         <v>0</v>
@@ -2756,15 +2972,15 @@
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B44" s="34">
         <v>1</v>
@@ -2774,15 +2990,15 @@
       </c>
       <c r="D44" s="34"/>
       <c r="E44" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
       <c r="H44" s="42"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B45" s="34">
         <v>1</v>
@@ -2792,15 +3008,15 @@
       </c>
       <c r="D45" s="34"/>
       <c r="E45" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="H45" s="42"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B46" s="36">
         <v>2</v>
@@ -2810,15 +3026,15 @@
       </c>
       <c r="D46" s="36"/>
       <c r="E46" s="36" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
       <c r="H46" s="42"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B47" s="34">
         <v>2</v>
@@ -2828,158 +3044,158 @@
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B48" s="34">
         <v>0</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D48" s="34"/>
       <c r="E48" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
       <c r="H48" s="42"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B49" s="37">
         <v>0</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D49" s="36"/>
       <c r="E49" s="36" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
       <c r="H49" s="42"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B50" s="34">
         <v>0</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D50" s="34"/>
       <c r="E50" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
       <c r="H50" s="42"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B51" s="34">
         <v>0</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D51" s="34"/>
       <c r="E51" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
       <c r="H51" s="42"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B52" s="34">
         <v>0</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D52" s="34"/>
       <c r="E52" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="42"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B53" s="34">
         <v>0</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D53" s="34"/>
       <c r="E53" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="42"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B54" s="34">
         <v>0</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
       <c r="H54" s="42"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B55" s="34">
         <v>0</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D55" s="34"/>
       <c r="E55" s="34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="42"/>
     </row>
   </sheetData>
-  <sortState ref="A3:H11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
   <mergeCells count="7">
@@ -2998,64 +3214,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
     </row>
-    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -3064,15 +3280,15 @@
       <c r="H5" s="34"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -3081,15 +3297,15 @@
       <c r="H6" s="34"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -3098,9 +3314,9 @@
       <c r="H7" s="35"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="34"/>
@@ -3111,9 +3327,9 @@
       <c r="H8" s="35"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -3124,9 +3340,9 @@
       <c r="H9" s="35"/>
       <c r="I9" s="42"/>
     </row>
-    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -3137,9 +3353,9 @@
       <c r="H10" s="35"/>
       <c r="I10" s="42"/>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -3150,15 +3366,15 @@
       <c r="H11" s="36"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -3167,15 +3383,15 @@
       <c r="H12" s="35"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -3184,15 +3400,15 @@
       <c r="H13" s="56"/>
       <c r="I13" s="54"/>
     </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="58"/>
@@ -3201,54 +3417,54 @@
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A16" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
       <c r="H17" s="61"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -3257,15 +3473,15 @@
       <c r="H18" s="34"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -3274,9 +3490,9 @@
       <c r="H19" s="34"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -3287,9 +3503,9 @@
       <c r="H20" s="35"/>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -3300,9 +3516,9 @@
       <c r="H21" s="35"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -3313,9 +3529,9 @@
       <c r="H22" s="35"/>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -3326,9 +3542,9 @@
       <c r="H23" s="35"/>
       <c r="I23" s="42"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -3339,15 +3555,15 @@
       <c r="H24" s="36"/>
       <c r="I24" s="42"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>83</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>105</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -3356,15 +3572,15 @@
       <c r="H25" s="35"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
@@ -3373,15 +3589,15 @@
       <c r="H26" s="56"/>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="58"/>
@@ -3390,49 +3606,49 @@
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
     </row>
-    <row r="29" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A29" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
     </row>
     <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
       <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -3441,9 +3657,9 @@
       <c r="H31" s="34"/>
       <c r="I31" s="42"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -3454,9 +3670,9 @@
       <c r="H32" s="34"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -3467,9 +3683,9 @@
       <c r="H33" s="35"/>
       <c r="I33" s="42"/>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -3480,9 +3696,9 @@
       <c r="H34" s="35"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -3493,9 +3709,9 @@
       <c r="H35" s="35"/>
       <c r="I35" s="42"/>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -3506,15 +3722,15 @@
       <c r="H36" s="35"/>
       <c r="I36" s="42"/>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
@@ -3523,15 +3739,15 @@
       <c r="H37" s="36"/>
       <c r="I37" s="42"/>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="34"/>
@@ -3540,15 +3756,15 @@
       <c r="H38" s="35"/>
       <c r="I38" s="42"/>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D39" s="53"/>
       <c r="E39" s="53"/>
@@ -3557,15 +3773,15 @@
       <c r="H39" s="56"/>
       <c r="I39" s="54"/>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D40" s="57"/>
       <c r="E40" s="58"/>
@@ -3574,49 +3790,49 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="42" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A42" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
     </row>
     <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="59" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D43" s="60" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
       <c r="H43" s="61"/>
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D44" s="34"/>
       <c r="E44" s="34"/>
@@ -3625,9 +3841,9 @@
       <c r="H44" s="34"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -3638,9 +3854,9 @@
       <c r="H45" s="34"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -3651,9 +3867,9 @@
       <c r="H46" s="35"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -3664,9 +3880,9 @@
       <c r="H47" s="35"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
@@ -3677,9 +3893,9 @@
       <c r="H48" s="35"/>
       <c r="I48" s="42"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
@@ -3690,15 +3906,15 @@
       <c r="H49" s="35"/>
       <c r="I49" s="42"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
@@ -3707,15 +3923,15 @@
       <c r="H50" s="36"/>
       <c r="I50" s="42"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D51" s="34"/>
       <c r="E51" s="34"/>
@@ -3724,15 +3940,15 @@
       <c r="H51" s="35"/>
       <c r="I51" s="42"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
@@ -3741,15 +3957,15 @@
       <c r="H52" s="56"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D53" s="57"/>
       <c r="E53" s="58"/>
@@ -3771,243 +3987,243 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B2" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="67"/>
       <c r="B16" s="64"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B17" s="64"/>
       <c r="C17" s="58"/>
       <c r="D17" s="58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B18" s="64"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048576" s="64"/>
     </row>
   </sheetData>
@@ -4018,224 +4234,390 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="70" customWidth="1"/>
-    <col min="2" max="2" width="125.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69"/>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:2" ht="23.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" s="80" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="71">
         <v>45392</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="71">
         <v>45392</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="71">
         <v>45392</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="75">
         <v>45393</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A8" s="75"/>
       <c r="B8" s="76" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="75">
         <v>45397</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="75">
         <v>45397</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="75">
         <v>45397</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="75">
         <v>45397</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="75">
         <v>45398</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="75">
         <v>45398</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="75">
         <v>45398</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A16" s="75"/>
       <c r="B16" s="76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="75">
         <v>45400</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="75">
         <v>45408</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="75">
         <v>45409</v>
       </c>
-      <c r="B19" s="81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="75">
         <v>45414</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="75">
         <v>45414</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="74" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="75">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="75"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="75"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="75"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="75"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="75"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="75"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="75"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="75"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="75"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="75"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="75"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="75"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="75"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="75"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B2:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DIR/Proyecto/P1-e6 Interconexión de sites/GIC-DIR-Practica1-e6/GIC-DIR-Practica2-e6-Interconexión.xlsx
+++ b/DIR/Proyecto/P1-e6 Interconexión de sites/GIC-DIR-Practica1-e6/GIC-DIR-Practica2-e6-Interconexión.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/692426700a49c2ec/Documentos/2-cuatri/DIR/Proyecto/P1-e6 Interconexión de sites/GIC-DIR-Practica1-e6/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AA9769-4E51-431E-95C5-6DEEDBD26080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="10215" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Genérico" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="Informes" sheetId="4" r:id="rId4"/>
     <sheet name="WAN" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -627,7 +621,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1643,7 +1637,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1688,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1770,9 +1764,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1810,7 +1804,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1882,7 +1876,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2055,30 +2049,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="13" width="10.5546875" customWidth="1"/>
-    <col min="16" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" customWidth="1"/>
+    <col min="16" max="47" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="s">
         <v>132</v>
       </c>
@@ -2090,7 +2084,7 @@
       <c r="G1" s="88"/>
       <c r="H1" s="88"/>
     </row>
-    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2120,7 @@
       </c>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -2161,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -2197,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -2233,7 +2227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -2269,7 +2263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -2305,7 +2299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2341,7 +2335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
@@ -2379,7 +2373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="7"/>
       <c r="G10" s="8"/>
@@ -2397,7 +2391,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2419,7 +2413,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J12" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2433,7 +2427,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="89" t="s">
         <v>23</v>
       </c>
@@ -2548,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="92" t="s">
         <v>24</v>
       </c>
@@ -2567,7 +2561,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>25</v>
       </c>
@@ -2593,7 +2587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="95" t="s">
         <v>27</v>
       </c>
@@ -2612,7 +2606,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J17" s="22">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2627,7 +2621,7 @@
       </c>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J18" s="22">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2641,7 +2635,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J19" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2655,7 +2649,7 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="87" t="s">
         <v>131</v>
       </c>
@@ -2667,7 +2661,7 @@
       <c r="G24" s="87"/>
       <c r="H24" s="87"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
@@ -2691,7 +2685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>30</v>
       </c>
@@ -2713,7 +2707,7 @@
       </c>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>32</v>
       </c>
@@ -2733,7 +2727,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>34</v>
       </c>
@@ -2753,7 +2747,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>36</v>
       </c>
@@ -2775,7 +2769,7 @@
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>38</v>
       </c>
@@ -2795,7 +2789,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>40</v>
       </c>
@@ -2815,7 +2809,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="42"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>42</v>
       </c>
@@ -2837,7 +2831,7 @@
       </c>
       <c r="H32" s="42"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2847,7 +2841,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="42"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="46"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -2857,10 +2851,10 @@
       <c r="G34" s="47"/>
       <c r="H34" s="48"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="87" t="s">
         <v>130</v>
       </c>
@@ -2872,7 +2866,7 @@
       <c r="G38" s="87"/>
       <c r="H38" s="87"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>44</v>
       </c>
@@ -2898,7 +2892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>50</v>
       </c>
@@ -2920,7 +2914,7 @@
       </c>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>54</v>
       </c>
@@ -2942,7 +2936,7 @@
       </c>
       <c r="H41" s="42"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>56</v>
       </c>
@@ -2960,7 +2954,7 @@
       <c r="G42" s="35"/>
       <c r="H42" s="42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>57</v>
       </c>
@@ -2978,7 +2972,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>58</v>
       </c>
@@ -2996,7 +2990,7 @@
       <c r="G44" s="35"/>
       <c r="H44" s="42"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>59</v>
       </c>
@@ -3014,7 +3008,7 @@
       <c r="G45" s="35"/>
       <c r="H45" s="42"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>60</v>
       </c>
@@ -3032,7 +3026,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="42"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>61</v>
       </c>
@@ -3050,7 +3044,7 @@
       <c r="G47" s="35"/>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>62</v>
       </c>
@@ -3068,7 +3062,7 @@
       <c r="G48" s="35"/>
       <c r="H48" s="42"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>63</v>
       </c>
@@ -3086,7 +3080,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="42"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>64</v>
       </c>
@@ -3104,7 +3098,7 @@
       <c r="G50" s="35"/>
       <c r="H50" s="42"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>65</v>
       </c>
@@ -3122,7 +3116,7 @@
       <c r="G51" s="35"/>
       <c r="H51" s="42"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>66</v>
       </c>
@@ -3140,7 +3134,7 @@
       <c r="G52" s="35"/>
       <c r="H52" s="42"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>67</v>
       </c>
@@ -3158,7 +3152,7 @@
       <c r="G53" s="35"/>
       <c r="H53" s="42"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>68</v>
       </c>
@@ -3176,7 +3170,7 @@
       <c r="G54" s="35"/>
       <c r="H54" s="42"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>69</v>
       </c>
@@ -3195,7 +3189,7 @@
       <c r="H55" s="42"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
+  <sortState ref="A3:H11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
   <mergeCells count="7">
@@ -3214,22 +3208,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
         <v>50</v>
       </c>
@@ -3263,7 +3257,7 @@
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>74</v>
       </c>
@@ -3280,7 +3274,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>75</v>
       </c>
@@ -3297,7 +3291,7 @@
       <c r="H6" s="34"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>76</v>
       </c>
@@ -3314,7 +3308,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>77</v>
       </c>
@@ -3327,7 +3321,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>78</v>
       </c>
@@ -3340,7 +3334,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="42"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>79</v>
       </c>
@@ -3353,7 +3347,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="42"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>80</v>
       </c>
@@ -3366,7 +3360,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>81</v>
       </c>
@@ -3383,7 +3377,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>82</v>
       </c>
@@ -3400,7 +3394,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="54"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>83</v>
       </c>
@@ -3417,12 +3411,12 @@
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="98" t="s">
         <v>54</v>
       </c>
@@ -3456,7 +3450,7 @@
       <c r="H17" s="61"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>74</v>
       </c>
@@ -3473,7 +3467,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>75</v>
       </c>
@@ -3490,7 +3484,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>76</v>
       </c>
@@ -3503,7 +3497,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>77</v>
       </c>
@@ -3516,7 +3510,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>78</v>
       </c>
@@ -3529,7 +3523,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>79</v>
       </c>
@@ -3542,7 +3536,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="42"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>80</v>
       </c>
@@ -3555,7 +3549,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="42"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>81</v>
       </c>
@@ -3572,7 +3566,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>82</v>
       </c>
@@ -3589,7 +3583,7 @@
       <c r="H26" s="56"/>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>83</v>
       </c>
@@ -3606,7 +3600,7 @@
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A29" s="98" t="s">
         <v>62</v>
       </c>
@@ -3640,7 +3634,7 @@
       <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>74</v>
       </c>
@@ -3657,7 +3651,7 @@
       <c r="H31" s="34"/>
       <c r="I31" s="42"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>75</v>
       </c>
@@ -3670,7 +3664,7 @@
       <c r="H32" s="34"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>76</v>
       </c>
@@ -3683,7 +3677,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="42"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>77</v>
       </c>
@@ -3696,7 +3690,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>78</v>
       </c>
@@ -3709,7 +3703,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="42"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>79</v>
       </c>
@@ -3722,7 +3716,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="42"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>80</v>
       </c>
@@ -3739,7 +3733,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="42"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>81</v>
       </c>
@@ -3756,7 +3750,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="42"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>82</v>
       </c>
@@ -3773,7 +3767,7 @@
       <c r="H39" s="56"/>
       <c r="I39" s="54"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>83</v>
       </c>
@@ -3790,7 +3784,7 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A42" s="98" t="s">
         <v>63</v>
       </c>
@@ -3824,7 +3818,7 @@
       <c r="H43" s="61"/>
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>74</v>
       </c>
@@ -3841,7 +3835,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>75</v>
       </c>
@@ -3854,7 +3848,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
         <v>76</v>
       </c>
@@ -3867,7 +3861,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>77</v>
       </c>
@@ -3880,7 +3874,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>78</v>
       </c>
@@ -3893,7 +3887,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="42"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
         <v>79</v>
       </c>
@@ -3906,7 +3900,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="42"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>80</v>
       </c>
@@ -3923,7 +3917,7 @@
       <c r="H50" s="36"/>
       <c r="I50" s="42"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>81</v>
       </c>
@@ -3940,7 +3934,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="42"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>82</v>
       </c>
@@ -3957,7 +3951,7 @@
       <c r="H52" s="56"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>83</v>
       </c>
@@ -3987,18 +3981,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
@@ -4015,7 +4009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>50</v>
       </c>
@@ -4029,7 +4023,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>54</v>
       </c>
@@ -4043,7 +4037,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>56</v>
       </c>
@@ -4057,7 +4051,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
@@ -4071,7 +4065,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>58</v>
       </c>
@@ -4085,7 +4079,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>59</v>
       </c>
@@ -4099,7 +4093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>60</v>
       </c>
@@ -4113,7 +4107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>61</v>
       </c>
@@ -4127,7 +4121,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>62</v>
       </c>
@@ -4141,7 +4135,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>63</v>
       </c>
@@ -4155,7 +4149,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
@@ -4169,7 +4163,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>66</v>
       </c>
@@ -4183,7 +4177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>68</v>
       </c>
@@ -4197,13 +4191,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="67"/>
       <c r="B16" s="64"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
         <v>103</v>
       </c>
@@ -4213,7 +4207,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
         <v>88</v>
       </c>
@@ -4223,7 +4217,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048576" s="64"/>
     </row>
   </sheetData>
@@ -4234,24 +4228,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="70" customWidth="1"/>
+    <col min="2" max="2" width="125.7109375" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69"/>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="23.45" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>112</v>
       </c>
@@ -4259,13 +4253,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" s="80" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="71">
         <v>45392</v>
       </c>
@@ -4273,7 +4267,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="71">
         <v>45392</v>
       </c>
@@ -4281,7 +4275,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="71">
         <v>45392</v>
       </c>
@@ -4289,7 +4283,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="75">
         <v>45393</v>
       </c>
@@ -4297,13 +4291,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
       <c r="A8" s="75"/>
       <c r="B8" s="76" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <v>45397</v>
       </c>
@@ -4311,7 +4305,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
         <v>45397</v>
       </c>
@@ -4319,7 +4313,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="75">
         <v>45397</v>
       </c>
@@ -4327,7 +4321,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="75">
         <v>45397</v>
       </c>
@@ -4335,7 +4329,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="75">
         <v>45398</v>
       </c>
@@ -4343,7 +4337,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="75">
         <v>45398</v>
       </c>
@@ -4351,7 +4345,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="75">
         <v>45398</v>
       </c>
@@ -4359,13 +4353,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
       <c r="B16" s="76" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="75">
         <v>45400</v>
       </c>
@@ -4373,7 +4367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="75">
         <v>45408</v>
       </c>
@@ -4381,7 +4375,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="75">
         <v>45409</v>
       </c>
@@ -4389,7 +4383,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
         <v>45414</v>
       </c>
@@ -4397,7 +4391,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="75">
         <v>45414</v>
       </c>
@@ -4405,54 +4399,54 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="75">
-        <v>45414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="75"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="75"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="75"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="75"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="75"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="75"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="75"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="75"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="75"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="75"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="75"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="75"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="75"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="75"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="75"/>
     </row>
   </sheetData>
@@ -4462,19 +4456,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="81" t="s">
         <v>136</v>
@@ -4515,7 +4509,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="84" t="s">
         <v>148</v>
       </c>
@@ -4535,7 +4529,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="84" t="s">
         <v>153</v>
       </c>
@@ -4555,7 +4549,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="84" t="s">
         <v>158</v>
       </c>
@@ -4575,7 +4569,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="84" t="s">
         <v>163</v>
       </c>
@@ -4595,7 +4589,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="86" t="s">
         <v>168</v>
       </c>
@@ -4615,7 +4609,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:7" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DIR/Proyecto/P1-e6 Interconexión de sites/GIC-DIR-Practica1-e6/GIC-DIR-Practica2-e6-Interconexión.xlsx
+++ b/DIR/Proyecto/P1-e6 Interconexión de sites/GIC-DIR-Practica1-e6/GIC-DIR-Practica2-e6-Interconexión.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/692426700a49c2ec/Documentos/2-cuatri/DIR/Proyecto/P1-e6 Interconexión de sites/GIC-DIR-Practica1-e6/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_A269F773F76B8C4BE6A5ECF4741E399839BA837C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8824F4A6-EF83-43D7-8854-A8E8517C6DF9}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="10215" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genérico" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="Informes" sheetId="4" r:id="rId4"/>
     <sheet name="WAN" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="196">
   <si>
     <t>Depts.</t>
   </si>
@@ -616,12 +622,15 @@
   </si>
   <si>
     <t>IP's nuevas actualizadas en LAN-router.</t>
+  </si>
+  <si>
+    <t>Tengo que resolver dos problemas: 1. No puedo acceder a la web de un servidor Front desde ningún navegador de ninguna VLAN. 2. Tengo que cambiar las IP's de la red de administración porque se pisan con las de Álvaro. (10.2.0.0/16)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1637,7 +1646,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1697,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1764,9 +1773,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1804,7 +1813,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1876,7 +1885,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2049,30 +2058,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.5703125" customWidth="1"/>
-    <col min="16" max="47" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="13" width="10.5546875" customWidth="1"/>
+    <col min="16" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="88" t="s">
         <v>132</v>
       </c>
@@ -2084,7 +2093,7 @@
       <c r="G1" s="88"/>
       <c r="H1" s="88"/>
     </row>
-    <row r="2" spans="1:47" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2129,7 @@
       </c>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -2263,7 +2272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -2299,7 +2308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2335,7 +2344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
@@ -2373,7 +2382,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="7"/>
       <c r="G10" s="8"/>
@@ -2391,7 +2400,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2413,7 +2422,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="J12" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2427,7 +2436,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" s="89" t="s">
         <v>23</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="92" t="s">
         <v>24</v>
       </c>
@@ -2561,7 +2570,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="92" t="s">
         <v>25</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="95" t="s">
         <v>27</v>
       </c>
@@ -2606,7 +2615,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J17" s="22">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2621,7 +2630,7 @@
       </c>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J18" s="22">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2635,7 +2644,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J19" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2649,7 +2658,7 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="87" t="s">
         <v>131</v>
       </c>
@@ -2661,7 +2670,7 @@
       <c r="G24" s="87"/>
       <c r="H24" s="87"/>
     </row>
-    <row r="25" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
@@ -2685,7 +2694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>30</v>
       </c>
@@ -2707,7 +2716,7 @@
       </c>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>32</v>
       </c>
@@ -2727,7 +2736,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>34</v>
       </c>
@@ -2747,7 +2756,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>36</v>
       </c>
@@ -2769,7 +2778,7 @@
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>38</v>
       </c>
@@ -2789,7 +2798,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>40</v>
       </c>
@@ -2809,7 +2818,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="42"/>
     </row>
-    <row r="32" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>42</v>
       </c>
@@ -2831,7 +2840,7 @@
       </c>
       <c r="H32" s="42"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2841,7 +2850,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="42"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="46"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -2851,10 +2860,10 @@
       <c r="G34" s="47"/>
       <c r="H34" s="48"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="87" t="s">
         <v>130</v>
       </c>
@@ -2866,7 +2875,7 @@
       <c r="G38" s="87"/>
       <c r="H38" s="87"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>44</v>
       </c>
@@ -2892,7 +2901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>50</v>
       </c>
@@ -2914,7 +2923,7 @@
       </c>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>54</v>
       </c>
@@ -2936,7 +2945,7 @@
       </c>
       <c r="H41" s="42"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>56</v>
       </c>
@@ -2954,7 +2963,7 @@
       <c r="G42" s="35"/>
       <c r="H42" s="42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>57</v>
       </c>
@@ -2972,7 +2981,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>58</v>
       </c>
@@ -2990,7 +2999,7 @@
       <c r="G44" s="35"/>
       <c r="H44" s="42"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>59</v>
       </c>
@@ -3008,7 +3017,7 @@
       <c r="G45" s="35"/>
       <c r="H45" s="42"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
         <v>60</v>
       </c>
@@ -3026,7 +3035,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="42"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>61</v>
       </c>
@@ -3044,7 +3053,7 @@
       <c r="G47" s="35"/>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>62</v>
       </c>
@@ -3062,7 +3071,7 @@
       <c r="G48" s="35"/>
       <c r="H48" s="42"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
         <v>63</v>
       </c>
@@ -3080,7 +3089,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="42"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>64</v>
       </c>
@@ -3098,7 +3107,7 @@
       <c r="G50" s="35"/>
       <c r="H50" s="42"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>65</v>
       </c>
@@ -3116,7 +3125,7 @@
       <c r="G51" s="35"/>
       <c r="H51" s="42"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>66</v>
       </c>
@@ -3134,7 +3143,7 @@
       <c r="G52" s="35"/>
       <c r="H52" s="42"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>67</v>
       </c>
@@ -3152,7 +3161,7 @@
       <c r="G53" s="35"/>
       <c r="H53" s="42"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
         <v>68</v>
       </c>
@@ -3170,7 +3179,7 @@
       <c r="G54" s="35"/>
       <c r="H54" s="42"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
         <v>69</v>
       </c>
@@ -3189,7 +3198,7 @@
       <c r="H55" s="42"/>
     </row>
   </sheetData>
-  <sortState ref="A3:H11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
   <mergeCells count="7">
@@ -3208,22 +3217,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
         <v>50</v>
       </c>
@@ -3257,7 +3266,7 @@
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
     </row>
-    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>74</v>
       </c>
@@ -3274,7 +3283,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>75</v>
       </c>
@@ -3291,7 +3300,7 @@
       <c r="H6" s="34"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>76</v>
       </c>
@@ -3308,7 +3317,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>77</v>
       </c>
@@ -3321,7 +3330,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>78</v>
       </c>
@@ -3334,7 +3343,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="42"/>
     </row>
-    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>79</v>
       </c>
@@ -3347,7 +3356,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="42"/>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>80</v>
       </c>
@@ -3360,7 +3369,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>81</v>
       </c>
@@ -3377,7 +3386,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>82</v>
       </c>
@@ -3394,7 +3403,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="54"/>
     </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>83</v>
       </c>
@@ -3411,12 +3420,12 @@
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="98" t="s">
         <v>54</v>
       </c>
@@ -3450,7 +3459,7 @@
       <c r="H17" s="61"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>74</v>
       </c>
@@ -3467,7 +3476,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>75</v>
       </c>
@@ -3484,7 +3493,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>76</v>
       </c>
@@ -3497,7 +3506,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>77</v>
       </c>
@@ -3510,7 +3519,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>78</v>
       </c>
@@ -3523,7 +3532,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>79</v>
       </c>
@@ -3536,7 +3545,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="42"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>80</v>
       </c>
@@ -3549,7 +3558,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="42"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>81</v>
       </c>
@@ -3566,7 +3575,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>82</v>
       </c>
@@ -3583,7 +3592,7 @@
       <c r="H26" s="56"/>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>83</v>
       </c>
@@ -3600,7 +3609,7 @@
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
     </row>
-    <row r="29" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="98" t="s">
         <v>62</v>
       </c>
@@ -3634,7 +3643,7 @@
       <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>74</v>
       </c>
@@ -3651,7 +3660,7 @@
       <c r="H31" s="34"/>
       <c r="I31" s="42"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>75</v>
       </c>
@@ -3664,7 +3673,7 @@
       <c r="H32" s="34"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>76</v>
       </c>
@@ -3677,7 +3686,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="42"/>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>77</v>
       </c>
@@ -3690,7 +3699,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>78</v>
       </c>
@@ -3703,7 +3712,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="42"/>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>79</v>
       </c>
@@ -3716,7 +3725,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="42"/>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>80</v>
       </c>
@@ -3733,7 +3742,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="42"/>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>81</v>
       </c>
@@ -3750,7 +3759,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="42"/>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>82</v>
       </c>
@@ -3767,7 +3776,7 @@
       <c r="H39" s="56"/>
       <c r="I39" s="54"/>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>83</v>
       </c>
@@ -3784,7 +3793,7 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="42" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="98" t="s">
         <v>63</v>
       </c>
@@ -3818,7 +3827,7 @@
       <c r="H43" s="61"/>
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>74</v>
       </c>
@@ -3835,7 +3844,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>75</v>
       </c>
@@ -3848,7 +3857,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
         <v>76</v>
       </c>
@@ -3861,7 +3870,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>77</v>
       </c>
@@ -3874,7 +3883,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>78</v>
       </c>
@@ -3887,7 +3896,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="42"/>
     </row>
-    <row r="49" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
         <v>79</v>
       </c>
@@ -3900,7 +3909,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="42"/>
     </row>
-    <row r="50" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>80</v>
       </c>
@@ -3917,7 +3926,7 @@
       <c r="H50" s="36"/>
       <c r="I50" s="42"/>
     </row>
-    <row r="51" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>81</v>
       </c>
@@ -3934,7 +3943,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="42"/>
     </row>
-    <row r="52" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>82</v>
       </c>
@@ -3951,7 +3960,7 @@
       <c r="H52" s="56"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>83</v>
       </c>
@@ -3981,18 +3990,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
@@ -4009,7 +4018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>50</v>
       </c>
@@ -4023,7 +4032,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>54</v>
       </c>
@@ -4037,7 +4046,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>56</v>
       </c>
@@ -4051,7 +4060,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>58</v>
       </c>
@@ -4079,7 +4088,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>59</v>
       </c>
@@ -4093,7 +4102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>60</v>
       </c>
@@ -4107,7 +4116,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>61</v>
       </c>
@@ -4121,7 +4130,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>62</v>
       </c>
@@ -4135,7 +4144,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>63</v>
       </c>
@@ -4149,7 +4158,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
@@ -4163,7 +4172,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>66</v>
       </c>
@@ -4177,7 +4186,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>68</v>
       </c>
@@ -4191,13 +4200,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="67"/>
       <c r="B16" s="64"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
         <v>103</v>
       </c>
@@ -4207,7 +4216,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
         <v>88</v>
       </c>
@@ -4217,7 +4226,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048576" s="64"/>
     </row>
   </sheetData>
@@ -4228,24 +4237,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="70" customWidth="1"/>
-    <col min="2" max="2" width="125.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69"/>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:2" ht="23.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>112</v>
       </c>
@@ -4253,13 +4262,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" s="80" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="71">
         <v>45392</v>
       </c>
@@ -4267,7 +4276,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="71">
         <v>45392</v>
       </c>
@@ -4275,7 +4284,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="71">
         <v>45392</v>
       </c>
@@ -4283,7 +4292,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="75">
         <v>45393</v>
       </c>
@@ -4291,13 +4300,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A8" s="75"/>
       <c r="B8" s="76" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="75">
         <v>45397</v>
       </c>
@@ -4305,7 +4314,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="75">
         <v>45397</v>
       </c>
@@ -4313,7 +4322,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="75">
         <v>45397</v>
       </c>
@@ -4321,7 +4330,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="75">
         <v>45397</v>
       </c>
@@ -4329,7 +4338,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="75">
         <v>45398</v>
       </c>
@@ -4337,7 +4346,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="75">
         <v>45398</v>
       </c>
@@ -4345,7 +4354,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="75">
         <v>45398</v>
       </c>
@@ -4353,13 +4362,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A16" s="75"/>
       <c r="B16" s="76" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="75">
         <v>45400</v>
       </c>
@@ -4367,7 +4376,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="75">
         <v>45408</v>
       </c>
@@ -4375,7 +4384,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="75">
         <v>45409</v>
       </c>
@@ -4383,7 +4392,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="75">
         <v>45414</v>
       </c>
@@ -4391,7 +4400,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="75">
         <v>45414</v>
       </c>
@@ -4399,54 +4408,57 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="75">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+        <v>45419</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="75"/>
     </row>
-    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="75"/>
     </row>
-    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="75"/>
     </row>
-    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="75"/>
     </row>
-    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="75"/>
     </row>
-    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="75"/>
     </row>
-    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="75"/>
     </row>
-    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="75"/>
     </row>
-    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="75"/>
     </row>
-    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="75"/>
     </row>
-    <row r="33" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="75"/>
     </row>
-    <row r="34" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="75"/>
     </row>
-    <row r="35" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="75"/>
     </row>
-    <row r="36" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="75"/>
     </row>
-    <row r="37" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="75"/>
     </row>
   </sheetData>
@@ -4456,19 +4468,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="81" t="s">
         <v>136</v>
@@ -4509,7 +4521,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="84" t="s">
         <v>148</v>
       </c>
@@ -4529,7 +4541,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="84" t="s">
         <v>153</v>
       </c>
@@ -4549,7 +4561,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="84" t="s">
         <v>158</v>
       </c>
@@ -4569,7 +4581,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="84" t="s">
         <v>163</v>
       </c>
@@ -4589,7 +4601,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="86" t="s">
         <v>168</v>
       </c>
@@ -4609,7 +4621,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="2:7" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DIR/Proyecto/P1-e6 Interconexión de sites/GIC-DIR-Practica1-e6/GIC-DIR-Practica2-e6-Interconexión.xlsx
+++ b/DIR/Proyecto/P1-e6 Interconexión de sites/GIC-DIR-Practica1-e6/GIC-DIR-Practica2-e6-Interconexión.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/692426700a49c2ec/Documentos/2-cuatri/DIR/Proyecto/P1-e6 Interconexión de sites/GIC-DIR-Practica1-e6/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_A269F773F76B8C4BE6A5ECF4741E399839BA837C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8824F4A6-EF83-43D7-8854-A8E8517C6DF9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Genérico" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="Informes" sheetId="4" r:id="rId4"/>
     <sheet name="WAN" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="197">
   <si>
     <t>Depts.</t>
   </si>
@@ -312,60 +306,15 @@
     <t>Server</t>
   </si>
   <si>
-    <t>10.2.0.1</t>
-  </si>
-  <si>
-    <t>10.2.0.2</t>
-  </si>
-  <si>
     <t>FastEthernet0/0</t>
   </si>
   <si>
     <t>FastEthernet13/0</t>
   </si>
   <si>
-    <t>10.2.0.10</t>
-  </si>
-  <si>
-    <t>10.2.0.11</t>
-  </si>
-  <si>
-    <t>10.2.0.12</t>
-  </si>
-  <si>
-    <t>10.2.0.13</t>
-  </si>
-  <si>
-    <t>10.2.0.14</t>
-  </si>
-  <si>
-    <t>10.2.0.15</t>
-  </si>
-  <si>
-    <t>10.2.0.16</t>
-  </si>
-  <si>
-    <t>10.2.0.17</t>
-  </si>
-  <si>
     <t>LAN-router</t>
   </si>
   <si>
-    <t>10.2.0.18</t>
-  </si>
-  <si>
-    <t>10.2.0.19</t>
-  </si>
-  <si>
-    <t>10.2.0.20</t>
-  </si>
-  <si>
-    <t>10.2.0.21</t>
-  </si>
-  <si>
-    <t>10.2.0.22</t>
-  </si>
-  <si>
     <t>10.2.0.0/24</t>
   </si>
   <si>
@@ -625,12 +574,60 @@
   </si>
   <si>
     <t>Tengo que resolver dos problemas: 1. No puedo acceder a la web de un servidor Front desde ningún navegador de ninguna VLAN. 2. Tengo que cambiar las IP's de la red de administración porque se pisan con las de Álvaro. (10.2.0.0/16)</t>
+  </si>
+  <si>
+    <t>192.168.100.1</t>
+  </si>
+  <si>
+    <t>192.168.100.2</t>
+  </si>
+  <si>
+    <t>192.168.100.10</t>
+  </si>
+  <si>
+    <t>192.168.100.11</t>
+  </si>
+  <si>
+    <t>192.168.100.12</t>
+  </si>
+  <si>
+    <t>192.168.100.13</t>
+  </si>
+  <si>
+    <t>192.168.100.14</t>
+  </si>
+  <si>
+    <t>192.168.100.15</t>
+  </si>
+  <si>
+    <t>192.168.100.16</t>
+  </si>
+  <si>
+    <t>192.168.100.17</t>
+  </si>
+  <si>
+    <t>192.168.100.18</t>
+  </si>
+  <si>
+    <t>192.168.100.19</t>
+  </si>
+  <si>
+    <t>192.168.100.20</t>
+  </si>
+  <si>
+    <t>192.168.100.21</t>
+  </si>
+  <si>
+    <t>192.168.100.22</t>
+  </si>
+  <si>
+    <t>Cambio las IP's de la red de administración.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1646,7 +1643,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1694,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1773,9 +1770,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1813,7 +1810,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1885,7 +1882,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2058,32 +2055,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="13" width="10.5546875" customWidth="1"/>
-    <col min="16" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" customWidth="1"/>
+    <col min="16" max="47" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -2093,7 +2090,7 @@
       <c r="G1" s="88"/>
       <c r="H1" s="88"/>
     </row>
-    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2126,7 @@
       </c>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -2146,10 +2143,10 @@
         <v>1024</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="H3" s="16"/>
       <c r="J3" s="22">
@@ -2164,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -2181,10 +2178,10 @@
         <v>1024</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="H4" s="16"/>
       <c r="J4" s="22">
@@ -2200,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -2217,10 +2214,10 @@
         <v>512</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="H5" s="16"/>
       <c r="J5" s="22">
@@ -2236,7 +2233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -2253,10 +2250,10 @@
         <v>256</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H6" s="29"/>
       <c r="J6" s="22">
@@ -2272,7 +2269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -2289,10 +2286,10 @@
         <v>128</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="H7" s="16"/>
       <c r="J7" s="22">
@@ -2308,7 +2305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2325,10 +2322,10 @@
         <v>65</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="H8" s="16"/>
       <c r="J8" s="22">
@@ -2344,7 +2341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
@@ -2352,7 +2349,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D9" s="25">
         <v>10</v>
@@ -2361,13 +2358,13 @@
         <v>256</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="J9" s="22">
         <f t="shared" si="2"/>
@@ -2382,7 +2379,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="7"/>
       <c r="G10" s="8"/>
@@ -2400,7 +2397,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2422,7 +2419,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J12" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2436,7 +2433,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="89" t="s">
         <v>23</v>
       </c>
@@ -2551,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="92" t="s">
         <v>24</v>
       </c>
@@ -2570,7 +2567,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
         <v>25</v>
       </c>
@@ -2596,7 +2593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="95" t="s">
         <v>27</v>
       </c>
@@ -2615,7 +2612,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J17" s="22">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2630,7 +2627,7 @@
       </c>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J18" s="22">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2644,7 +2641,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J19" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2658,9 +2655,9 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="87" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
@@ -2670,7 +2667,7 @@
       <c r="G24" s="87"/>
       <c r="H24" s="87"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
@@ -2694,7 +2691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>30</v>
       </c>
@@ -2709,14 +2706,14 @@
         <v>512</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>32</v>
       </c>
@@ -2731,12 +2728,12 @@
         <v>512</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>34</v>
       </c>
@@ -2751,12 +2748,12 @@
         <v>512</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>36</v>
       </c>
@@ -2771,14 +2768,14 @@
         <v>512</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>38</v>
       </c>
@@ -2793,12 +2790,12 @@
         <v>512</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>40</v>
       </c>
@@ -2813,12 +2810,12 @@
         <v>512</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="42"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>42</v>
       </c>
@@ -2833,14 +2830,14 @@
         <v>512</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H32" s="42"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2850,7 +2847,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="42"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="46"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -2860,12 +2857,12 @@
       <c r="G34" s="47"/>
       <c r="H34" s="48"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D35" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="87" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B38" s="87"/>
       <c r="C38" s="87"/>
@@ -2875,7 +2872,7 @@
       <c r="G38" s="87"/>
       <c r="H38" s="87"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>44</v>
       </c>
@@ -2901,7 +2898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>50</v>
       </c>
@@ -2923,7 +2920,7 @@
       </c>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>54</v>
       </c>
@@ -2945,7 +2942,7 @@
       </c>
       <c r="H41" s="42"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>56</v>
       </c>
@@ -2963,7 +2960,7 @@
       <c r="G42" s="35"/>
       <c r="H42" s="42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>57</v>
       </c>
@@ -2981,7 +2978,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>58</v>
       </c>
@@ -2999,7 +2996,7 @@
       <c r="G44" s="35"/>
       <c r="H44" s="42"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>59</v>
       </c>
@@ -3017,7 +3014,7 @@
       <c r="G45" s="35"/>
       <c r="H45" s="42"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
         <v>60</v>
       </c>
@@ -3035,7 +3032,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="42"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>61</v>
       </c>
@@ -3053,7 +3050,7 @@
       <c r="G47" s="35"/>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>62</v>
       </c>
@@ -3071,7 +3068,7 @@
       <c r="G48" s="35"/>
       <c r="H48" s="42"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
         <v>63</v>
       </c>
@@ -3089,7 +3086,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="42"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>64</v>
       </c>
@@ -3107,7 +3104,7 @@
       <c r="G50" s="35"/>
       <c r="H50" s="42"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>65</v>
       </c>
@@ -3125,7 +3122,7 @@
       <c r="G51" s="35"/>
       <c r="H51" s="42"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>66</v>
       </c>
@@ -3143,7 +3140,7 @@
       <c r="G52" s="35"/>
       <c r="H52" s="42"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>67</v>
       </c>
@@ -3161,7 +3158,7 @@
       <c r="G53" s="35"/>
       <c r="H53" s="42"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
         <v>68</v>
       </c>
@@ -3179,7 +3176,7 @@
       <c r="G54" s="35"/>
       <c r="H54" s="42"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
         <v>69</v>
       </c>
@@ -3198,7 +3195,7 @@
       <c r="H55" s="42"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
+  <sortState ref="A3:H11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
   <mergeCells count="7">
@@ -3217,22 +3214,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
         <v>50</v>
       </c>
@@ -3266,7 +3263,7 @@
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>74</v>
       </c>
@@ -3283,7 +3280,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>75</v>
       </c>
@@ -3300,7 +3297,7 @@
       <c r="H6" s="34"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>76</v>
       </c>
@@ -3308,7 +3305,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -3317,7 +3314,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>77</v>
       </c>
@@ -3330,7 +3327,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>78</v>
       </c>
@@ -3343,7 +3340,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="42"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>79</v>
       </c>
@@ -3356,7 +3353,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="42"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>80</v>
       </c>
@@ -3369,7 +3366,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>81</v>
       </c>
@@ -3386,7 +3383,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>82</v>
       </c>
@@ -3403,7 +3400,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="54"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>83</v>
       </c>
@@ -3420,12 +3417,12 @@
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="98" t="s">
         <v>54</v>
       </c>
@@ -3459,7 +3456,7 @@
       <c r="H17" s="61"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>74</v>
       </c>
@@ -3476,7 +3473,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>75</v>
       </c>
@@ -3493,7 +3490,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>76</v>
       </c>
@@ -3506,7 +3503,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>77</v>
       </c>
@@ -3519,7 +3516,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>78</v>
       </c>
@@ -3532,7 +3529,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>79</v>
       </c>
@@ -3545,7 +3542,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="42"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>80</v>
       </c>
@@ -3558,7 +3555,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="42"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>81</v>
       </c>
@@ -3575,7 +3572,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>82</v>
       </c>
@@ -3592,7 +3589,7 @@
       <c r="H26" s="56"/>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>83</v>
       </c>
@@ -3609,7 +3606,7 @@
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A29" s="98" t="s">
         <v>62</v>
       </c>
@@ -3643,7 +3640,7 @@
       <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>74</v>
       </c>
@@ -3660,7 +3657,7 @@
       <c r="H31" s="34"/>
       <c r="I31" s="42"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>75</v>
       </c>
@@ -3673,7 +3670,7 @@
       <c r="H32" s="34"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>76</v>
       </c>
@@ -3686,7 +3683,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="42"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>77</v>
       </c>
@@ -3699,7 +3696,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>78</v>
       </c>
@@ -3712,7 +3709,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="42"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>79</v>
       </c>
@@ -3725,7 +3722,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="42"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>80</v>
       </c>
@@ -3733,7 +3730,7 @@
         <v>68</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
@@ -3742,7 +3739,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="42"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>81</v>
       </c>
@@ -3750,7 +3747,7 @@
         <v>66</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="34"/>
@@ -3759,7 +3756,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="42"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>82</v>
       </c>
@@ -3767,7 +3764,7 @@
         <v>64</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D39" s="53"/>
       <c r="E39" s="53"/>
@@ -3776,7 +3773,7 @@
       <c r="H39" s="56"/>
       <c r="I39" s="54"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>83</v>
       </c>
@@ -3793,7 +3790,7 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A42" s="98" t="s">
         <v>63</v>
       </c>
@@ -3827,7 +3824,7 @@
       <c r="H43" s="61"/>
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>74</v>
       </c>
@@ -3844,7 +3841,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>75</v>
       </c>
@@ -3857,7 +3854,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
         <v>76</v>
       </c>
@@ -3870,7 +3867,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>77</v>
       </c>
@@ -3883,7 +3880,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>78</v>
       </c>
@@ -3896,7 +3893,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="42"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
         <v>79</v>
       </c>
@@ -3909,7 +3906,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="42"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>80</v>
       </c>
@@ -3917,7 +3914,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
@@ -3926,7 +3923,7 @@
       <c r="H50" s="36"/>
       <c r="I50" s="42"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>81</v>
       </c>
@@ -3934,7 +3931,7 @@
         <v>66</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D51" s="34"/>
       <c r="E51" s="34"/>
@@ -3943,7 +3940,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="42"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>82</v>
       </c>
@@ -3951,7 +3948,7 @@
         <v>64</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
@@ -3960,7 +3957,7 @@
       <c r="H52" s="56"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>83</v>
       </c>
@@ -3990,18 +3987,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
@@ -4018,7 +4017,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>50</v>
       </c>
@@ -4029,10 +4028,10 @@
         <v>90</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>54</v>
       </c>
@@ -4043,10 +4042,10 @@
         <v>55</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>56</v>
       </c>
@@ -4057,10 +4056,10 @@
         <v>55</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
@@ -4071,10 +4070,10 @@
         <v>55</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>58</v>
       </c>
@@ -4085,10 +4084,10 @@
         <v>55</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>59</v>
       </c>
@@ -4099,10 +4098,10 @@
         <v>55</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>60</v>
       </c>
@@ -4113,10 +4112,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>61</v>
       </c>
@@ -4127,10 +4126,10 @@
         <v>55</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>62</v>
       </c>
@@ -4141,10 +4140,10 @@
         <v>55</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>63</v>
       </c>
@@ -4155,10 +4154,10 @@
         <v>55</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
@@ -4169,10 +4168,10 @@
         <v>55</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>66</v>
       </c>
@@ -4183,10 +4182,10 @@
         <v>55</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>68</v>
       </c>
@@ -4197,36 +4196,36 @@
         <v>55</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="67"/>
       <c r="B16" s="64"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B17" s="64"/>
       <c r="C17" s="58"/>
       <c r="D17" s="58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="64"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048576" s="64"/>
     </row>
   </sheetData>
@@ -4237,228 +4236,233 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="70" customWidth="1"/>
+    <col min="2" max="2" width="125.7109375" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69"/>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="23.45" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" s="80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="71">
         <v>45392</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="71">
         <v>45392</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="71">
         <v>45392</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="75">
         <v>45393</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
       <c r="A8" s="75"/>
       <c r="B8" s="76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <v>45397</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
         <v>45397</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="75">
         <v>45397</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="75">
         <v>45397</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="75">
         <v>45398</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="75">
         <v>45398</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="75">
         <v>45398</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
       <c r="B16" s="76" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="75">
         <v>45400</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="75">
         <v>45408</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="75">
         <v>45409</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
         <v>45414</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="75">
         <v>45414</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="75">
         <v>45419</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="75"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="75">
+        <v>45419</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="75"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="75"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="75"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="75"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="75"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="75"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="75"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="75"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="75"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="75"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="75"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="75"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="75"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="75"/>
     </row>
   </sheetData>
@@ -4468,160 +4472,160 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="81" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="85" t="s">
+    </row>
+    <row r="7" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="C7" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E7" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F7" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G7" s="85" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="84" t="s">
+    <row r="8" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C8" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D8" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E8" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F8" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G8" s="85" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="84" t="s">
+    <row r="9" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C9" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D9" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="F9" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="G9" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="85" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="85" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="85" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="10" spans="2:7" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
